--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf22-Fgfr1.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H2">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I2">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J2">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>0.4047366219564444</v>
+        <v>0.05331133639933334</v>
       </c>
       <c r="R2">
-        <v>3.642629597608</v>
+        <v>0.479802027594</v>
       </c>
       <c r="S2">
-        <v>0.008161405660956404</v>
+        <v>0.003650293071681068</v>
       </c>
       <c r="T2">
-        <v>0.008161405660956406</v>
+        <v>0.003650293071681068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H3">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I3">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J3">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
-        <v>7.181413805374111</v>
+        <v>2.396053664462333</v>
       </c>
       <c r="R3">
-        <v>64.63272424836701</v>
+        <v>21.564482980161</v>
       </c>
       <c r="S3">
-        <v>0.144811287403486</v>
+        <v>0.1640607548317296</v>
       </c>
       <c r="T3">
-        <v>0.1448112874034861</v>
+        <v>0.1640607548317296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08656766666666667</v>
+        <v>0.028883</v>
       </c>
       <c r="H4">
-        <v>0.259703</v>
+        <v>0.086649</v>
       </c>
       <c r="I4">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="J4">
-        <v>0.2216590007280437</v>
+        <v>0.2501761214025038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>3.406259325084112</v>
+        <v>1.204375426349334</v>
       </c>
       <c r="R4">
-        <v>30.656333925757</v>
+        <v>10.839378837144</v>
       </c>
       <c r="S4">
-        <v>0.06868630766360125</v>
+        <v>0.08246507349909316</v>
       </c>
       <c r="T4">
-        <v>0.06868630766360125</v>
+        <v>0.08246507349909316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H5">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I5">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J5">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N5">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q5">
-        <v>1.421206022497778</v>
+        <v>0.1597838866797778</v>
       </c>
       <c r="R5">
-        <v>12.79085420248</v>
+        <v>1.438054980118</v>
       </c>
       <c r="S5">
-        <v>0.02865823908232086</v>
+        <v>0.01094060014073778</v>
       </c>
       <c r="T5">
-        <v>0.02865823908232086</v>
+        <v>0.01094060014073778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +773,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H6">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I6">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J6">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q6">
-        <v>25.21706214997445</v>
+        <v>7.181413805374111</v>
       </c>
       <c r="R6">
-        <v>226.95355934977</v>
+        <v>64.63272424836701</v>
       </c>
       <c r="S6">
-        <v>0.5084953093412899</v>
+        <v>0.4917202761955091</v>
       </c>
       <c r="T6">
-        <v>0.5084953093412901</v>
+        <v>0.4917202761955092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +835,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3039766666666667</v>
+        <v>0.08656766666666667</v>
       </c>
       <c r="H7">
-        <v>0.91193</v>
+        <v>0.259703</v>
       </c>
       <c r="I7">
-        <v>0.7783409992719563</v>
+        <v>0.7498238785974961</v>
       </c>
       <c r="J7">
-        <v>0.7783409992719564</v>
+        <v>0.7498238785974962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N7">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q7">
-        <v>11.96085554007445</v>
+        <v>3.609734807663111</v>
       </c>
       <c r="R7">
-        <v>107.64769986067</v>
+        <v>32.487613268968</v>
       </c>
       <c r="S7">
-        <v>0.2411874508483456</v>
+        <v>0.2471630022612492</v>
       </c>
       <c r="T7">
-        <v>0.2411874508483456</v>
+        <v>0.2471630022612493</v>
       </c>
     </row>
   </sheetData>
